--- a/shipment-reports/BOUNDLESS-DEVICES-SHIPMENT-REPORT.xlsx
+++ b/shipment-reports/BOUNDLESS-DEVICES-SHIPMENT-REPORT.xlsx
@@ -349,7 +349,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">3/1/2025</t>
+            <t xml:space="preserve">3/3/2025</t>
           </r>
           <r>
             <rPr>
@@ -373,7 +373,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">11/1/2025
+            <t xml:space="preserve">11/3/2025
 </t>
           </r>
           <r>
@@ -398,7 +398,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">9/1/2025 8:00:13 AM
+            <t xml:space="preserve">9/3/2025 8:00:38 AM
 </t>
           </r>
         </is>
@@ -516,12 +516,12 @@
       </c>
       <c s="4" t="inlineStr" r="B5">
         <is>
-          <t xml:space="preserve">JJOLM252850</t>
+          <t xml:space="preserve">JJOLM253399</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="C5">
         <is>
-          <t xml:space="preserve">V25050067</t>
+          <t xml:space="preserve">V25060038</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="D5">
@@ -531,7 +531,7 @@
       </c>
       <c s="5" t="inlineStr" r="E5">
         <is>
-          <t xml:space="preserve">WIFI 6E TRI-BAND MESH ROUTER P/s: Without battery</t>
+          <t xml:space="preserve">WIFI 6E TRI-BAND MESH ROUTER  Without battery</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="F5">
@@ -541,39 +541,39 @@
       </c>
       <c s="5" t="inlineStr" r="G5">
         <is>
-          <t xml:space="preserve">MAEU255325089</t>
+          <t xml:space="preserve">MAEU256071059</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="H5">
         <is>
-          <t xml:space="preserve">MRKU6953826</t>
+          <t xml:space="preserve">GCXU5666707</t>
         </is>
       </c>
       <c s="6" r="I5">
-        <v>45843</v>
+        <v>45865</v>
       </c>
       <c s="6" r="J5">
-        <v>45843</v>
+        <v>45865</v>
       </c>
       <c s="5" t="inlineStr" r="K5">
         <is>
-          <t xml:space="preserve">LONG BEACH</t>
+          <t xml:space="preserve">LOS ANGELES</t>
         </is>
       </c>
       <c s="6" r="L5">
-        <v>45874</v>
+        <v>45889</v>
       </c>
       <c s="6" r="M5">
-        <v>45874</v>
+        <v>45889.4645833333</v>
       </c>
       <c s="6" r="N5">
-        <v>45887.7388888889</v>
+        <v>45896.2125</v>
       </c>
       <c s="6" r="O5">
-        <v>45889</v>
+        <v>45897</v>
       </c>
       <c s="6" r="P5">
-        <v>45889</v>
+        <v>45896.9013888889</v>
       </c>
       <c s="5" t="inlineStr" r="Q5">
         <is>
@@ -586,11 +586,9 @@
         </is>
       </c>
       <c s="6" r="S5">
-        <v>45895</v>
-      </c>
-      <c s="6" r="T5">
-        <v>45895</v>
-      </c>
+        <v>45905</v>
+      </c>
+      <c s="5" t="str" r="T5"/>
     </row>
     <row r="6" ht="18" customHeight="0">
       <c s="7" t="inlineStr" r="A6">
@@ -600,12 +598,12 @@
       </c>
       <c s="8" t="inlineStr" r="B6">
         <is>
-          <t xml:space="preserve">JJOLM253399</t>
+          <t xml:space="preserve">JJOLM253400</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="C6">
         <is>
-          <t xml:space="preserve">V25060038</t>
+          <t xml:space="preserve">V25060040</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="D6">
@@ -625,19 +623,19 @@
       </c>
       <c s="9" t="inlineStr" r="G6">
         <is>
-          <t xml:space="preserve">MAEU256071059</t>
+          <t xml:space="preserve">MAEU256806967</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="H6">
         <is>
-          <t xml:space="preserve">GCXU5666707</t>
+          <t xml:space="preserve">MRSU8112615</t>
         </is>
       </c>
       <c s="10" r="I6">
-        <v>45865</v>
+        <v>45872</v>
       </c>
       <c s="10" r="J6">
-        <v>45865</v>
+        <v>45872</v>
       </c>
       <c s="9" t="inlineStr" r="K6">
         <is>
@@ -645,20 +643,14 @@
         </is>
       </c>
       <c s="10" r="L6">
-        <v>45889</v>
-      </c>
-      <c s="10" r="M6">
-        <v>45889.4645833333</v>
-      </c>
-      <c s="10" r="N6">
-        <v>45896.2125</v>
-      </c>
+        <v>45903</v>
+      </c>
+      <c s="9" t="str" r="M6"/>
+      <c s="9" t="str" r="N6"/>
       <c s="10" r="O6">
-        <v>45897</v>
-      </c>
-      <c s="10" r="P6">
-        <v>45896.9013888889</v>
-      </c>
+        <v>45913</v>
+      </c>
+      <c s="9" t="str" r="P6"/>
       <c s="9" t="inlineStr" r="Q6">
         <is>
           <t xml:space="preserve">GREEN BAY</t>
@@ -670,7 +662,7 @@
         </is>
       </c>
       <c s="10" r="S6">
-        <v>45905</v>
+        <v>45915</v>
       </c>
       <c s="9" t="str" r="T6"/>
     </row>
@@ -682,22 +674,22 @@
       </c>
       <c s="4" t="inlineStr" r="B7">
         <is>
-          <t xml:space="preserve">JJOLM253400</t>
+          <t xml:space="preserve">JJOLM253443</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="C7">
         <is>
-          <t xml:space="preserve">V25060040</t>
+          <t xml:space="preserve">PRE2025062002</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="D7">
         <is>
-          <t xml:space="preserve">ASKEY TECHNOLOGY (VIETNAM) COMPANY LIMITED</t>
+          <t xml:space="preserve">GONGJIN ELECTRONICS (VIETNAM) COMPANY LIMITED</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="E7">
         <is>
-          <t xml:space="preserve">WIFI 6E TRI-BAND MESH ROUTER  Without battery</t>
+          <t xml:space="preserve">BCM3390ZR based, Docsis 3.1 Cable Modem Gateway</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="F7">
@@ -707,19 +699,19 @@
       </c>
       <c s="5" t="inlineStr" r="G7">
         <is>
-          <t xml:space="preserve">MAEU256806967</t>
+          <t xml:space="preserve">MAEU254878339</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="H7">
         <is>
-          <t xml:space="preserve">MRSU8112615</t>
+          <t xml:space="preserve">SUDU5910722</t>
         </is>
       </c>
       <c s="6" r="I7">
-        <v>45872</v>
+        <v>45844</v>
       </c>
       <c s="6" r="J7">
-        <v>45872</v>
+        <v>45843</v>
       </c>
       <c s="5" t="inlineStr" r="K7">
         <is>
@@ -727,14 +719,20 @@
         </is>
       </c>
       <c s="6" r="L7">
-        <v>45903</v>
-      </c>
-      <c s="5" t="str" r="M7"/>
-      <c s="5" t="str" r="N7"/>
+        <v>45874</v>
+      </c>
+      <c s="6" r="M7">
+        <v>45874</v>
+      </c>
+      <c s="6" r="N7">
+        <v>45891.7833333333</v>
+      </c>
       <c s="6" r="O7">
-        <v>45913</v>
-      </c>
-      <c s="5" t="str" r="P7"/>
+        <v>45892</v>
+      </c>
+      <c s="6" r="P7">
+        <v>45893</v>
+      </c>
       <c s="5" t="inlineStr" r="Q7">
         <is>
           <t xml:space="preserve">GREEN BAY</t>
@@ -746,95 +744,13 @@
         </is>
       </c>
       <c s="6" r="S7">
-        <v>45915</v>
-      </c>
-      <c s="5" t="str" r="T7"/>
+        <v>45896</v>
+      </c>
+      <c s="6" r="T7">
+        <v>45896</v>
+      </c>
     </row>
-    <row r="8" ht="18" customHeight="0">
-      <c s="7" t="inlineStr" r="A8">
-        <is>
-          <t xml:space="preserve">Sea</t>
-        </is>
-      </c>
-      <c s="8" t="inlineStr" r="B8">
-        <is>
-          <t xml:space="preserve">JJOLM253443</t>
-        </is>
-      </c>
-      <c s="9" t="inlineStr" r="C8">
-        <is>
-          <t xml:space="preserve">PRE2025062002</t>
-        </is>
-      </c>
-      <c s="9" t="inlineStr" r="D8">
-        <is>
-          <t xml:space="preserve">GONGJIN ELECTRONICS (VIETNAM) COMPANY LIMITED</t>
-        </is>
-      </c>
-      <c s="9" t="inlineStr" r="E8">
-        <is>
-          <t xml:space="preserve">BCM3390ZR based, Docsis 3.1 Cable Modem Gateway</t>
-        </is>
-      </c>
-      <c s="9" t="inlineStr" r="F8">
-        <is>
-          <t xml:space="preserve">HAIPHONG</t>
-        </is>
-      </c>
-      <c s="9" t="inlineStr" r="G8">
-        <is>
-          <t xml:space="preserve">MAEU254878339</t>
-        </is>
-      </c>
-      <c s="9" t="inlineStr" r="H8">
-        <is>
-          <t xml:space="preserve">SUDU5910722</t>
-        </is>
-      </c>
-      <c s="10" r="I8">
-        <v>45844</v>
-      </c>
-      <c s="10" r="J8">
-        <v>45843</v>
-      </c>
-      <c s="9" t="inlineStr" r="K8">
-        <is>
-          <t xml:space="preserve">LOS ANGELES</t>
-        </is>
-      </c>
-      <c s="10" r="L8">
-        <v>45874</v>
-      </c>
-      <c s="10" r="M8">
-        <v>45874</v>
-      </c>
-      <c s="10" r="N8">
-        <v>45891.7833333333</v>
-      </c>
-      <c s="10" r="O8">
-        <v>45892</v>
-      </c>
-      <c s="10" r="P8">
-        <v>45893</v>
-      </c>
-      <c s="9" t="inlineStr" r="Q8">
-        <is>
-          <t xml:space="preserve">GREEN BAY</t>
-        </is>
-      </c>
-      <c s="9" t="inlineStr" r="R8">
-        <is>
-          <t xml:space="preserve">WI</t>
-        </is>
-      </c>
-      <c s="10" r="S8">
-        <v>45896</v>
-      </c>
-      <c s="10" r="T8">
-        <v>45896</v>
-      </c>
-    </row>
-    <row r="9" ht="53.2" customHeight="1"/>
+    <row r="8" ht="53.2" customHeight="1"/>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:B2"/>
@@ -844,7 +760,6 @@
     <hyperlink ref="B5" r:id="rId9"/>
     <hyperlink ref="B6" r:id="rId10"/>
     <hyperlink ref="B7" r:id="rId11"/>
-    <hyperlink ref="B8" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1.45" header="1" footer="1"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
